--- a/xlsx/政体_intext.xlsx
+++ b/xlsx/政体_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="550">
   <si>
     <t>政体</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -335,9 +335,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>政體</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E5%88%B6</t>
   </si>
   <si>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>代議民主制</t>
+    <t>代议民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9D%E5%AF%B9%E5%90%9B%E4%B8%BB%E5%88%B6</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>金權政治</t>
+    <t>金权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%8B%E9%98%80%E6%94%BF%E6%B2%BB</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>威權政體</t>
+    <t>威权政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
@@ -437,25 +434,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>威權主義</t>
+    <t>威权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>專制</t>
+    <t>专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>專制主義</t>
+    <t>专制主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>軍事獨裁</t>
+    <t>军事独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
@@ -467,19 +464,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍國主義</t>
+    <t>军国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>無政府</t>
+    <t>无政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%B0%91%E4%B8%BB%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>半民主狀態</t>
+    <t>半民主状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%AE%98%E7%BB%9F%E6%B2%BB</t>
@@ -491,9 +488,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神權政治</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
@@ -503,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>綠色政治</t>
+    <t>绿色政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
@@ -527,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%86%B2%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>立憲政體</t>
+    <t>立宪政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E5%88%B6%E6%94%BF%E4%BD%93</t>
@@ -539,9 +533,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>獨裁政體</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E6%94%BF%E4%BD%93</t>
   </si>
   <si>
@@ -551,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬克思主義</t>
+    <t>马克思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%8A%9B</t>
@@ -605,21 +596,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>希羅多德</t>
+    <t>希罗多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>獨裁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E5%A4%B4</t>
   </si>
   <si>
@@ -671,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>君主政體</t>
+    <t>君主政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E6%94%BF%E4%BD%93</t>
@@ -755,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>社會契約</t>
+    <t>社会契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
@@ -785,19 +770,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>選舉制度</t>
+    <t>选举制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族主義</t>
+    <t>民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
@@ -863,9 +845,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BD%97%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>希罗多德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
@@ -881,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E6%8E%A5%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>間接民主制</t>
+    <t>间接民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%83%E9%A6%96</t>
@@ -911,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%C2%B7%E4%BA%A8%E5%BB%B7%E9%A0%93</t>
   </si>
   <si>
-    <t>塞繆爾·亨廷頓</t>
+    <t>塞缪尔·亨廷顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%8F%82%E4%B8%8E</t>
@@ -959,27 +938,21 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B9%8B%E5%AE%B6_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>自由之家 (美國)</t>
+    <t>自由之家 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%85%B1%E5%92%8C%E5%88%B6</t>
   </si>
   <si>
@@ -1013,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
@@ -1025,19 +998,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%8E%B1</t>
@@ -1061,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E6%AC%8A</t>
   </si>
   <si>
-    <t>選舉權</t>
+    <t>选举权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
@@ -1091,13 +1064,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E5%8A%A0%E8%B2%9D</t>
   </si>
   <si>
-    <t>穆加貝</t>
+    <t>穆加贝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -1109,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -1121,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%99%A2%E5%88%B6</t>
@@ -1133,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
@@ -1145,15 +1118,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
   </si>
   <si>
@@ -1169,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1181,13 +1151,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%8F%B0%E7%81%A3%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>中華民國台灣地區</t>
+    <t>中华民国台湾地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1229,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6</t>
@@ -1241,31 +1211,28 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>主權國家</t>
+    <t>主权国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>俄羅斯聯邦</t>
+    <t>俄罗斯联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>澳大利亞聯邦</t>
+    <t>澳大利亚联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E8%81%94%E9%82%A6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1283,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>合眾國</t>
+    <t>合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD</t>
@@ -1295,7 +1262,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>墨西哥合眾國</t>
+    <t>墨西哥合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%95%BF%E5%9B%BD</t>
@@ -1307,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
@@ -1331,13 +1298,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E7%88%BE%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>安道爾公國</t>
+    <t>安道尔公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>親王國</t>
+    <t>亲王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
@@ -1349,9 +1316,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E7%88%BE</t>
   </si>
   <si>
-    <t>安道爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E5%A3%AB%E7%99%BB</t>
   </si>
   <si>
@@ -1361,13 +1325,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5</t>
   </si>
   <si>
-    <t>摩納哥</t>
+    <t>摩纳哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>大公國</t>
+    <t>大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
@@ -1391,13 +1355,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%97%E5%9C%8B</t>
   </si>
   <si>
-    <t>汗國</t>
+    <t>汗国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%85%8B%E5%A4%9A%E6%B1%97%E5%9C%8B</t>
   </si>
   <si>
-    <t>博克多汗國</t>
+    <t>博克多汗国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%86%E5%99%B6%E5%B0%94%E6%B1%97%E5%9B%BD</t>
@@ -1427,7 +1391,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>西班牙帝國</t>
+    <t>西班牙帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9_(%E7%A7%B0%E8%B0%93)</t>
@@ -1451,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A%E8%98%87%E4%B8%B9%E5%9C%8B</t>
   </si>
   <si>
-    <t>埃及蘇丹國</t>
+    <t>埃及苏丹国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%9A%87%E5%9B%BD</t>
@@ -1481,25 +1445,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>葡萄牙共和國</t>
+    <t>葡萄牙共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>希臘共和國</t>
+    <t>希腊共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>民國</t>
+    <t>民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>大韓民國</t>
+    <t>大韩民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1511,25 +1475,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%92%BE%E4%BA%BA%E6%B0%91%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>老撾人民民主共和國</t>
+    <t>老挝人民民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>朝鮮民主主義人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>孟加拉人民共和國</t>
+    <t>孟加拉人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1553,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>越南社會主義共和國</t>
+    <t>越南社会主义共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1571,31 +1529,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>伊斯蘭國家</t>
+    <t>伊斯兰国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E4%BC%8A%E6%96%AF%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿富汗伊斯蘭共和國</t>
+    <t>阿富汗伊斯兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>伊朗伊斯蘭共和國</t>
+    <t>伊朗伊斯兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E4%BC%8A%E6%96%AF%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴基斯坦伊斯蘭共和國</t>
+    <t>巴基斯坦伊斯兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9E%E4%BC%8A%E6%96%AF%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>毛里塔尼亞伊斯蘭共和國</t>
+    <t>毛里塔尼亚伊斯兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E6%94%BF</t>
@@ -1607,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%85%E5%88%86%E5%BF%85%E8%A6%81%E6%9D%A1%E4%BB%B6</t>
@@ -1619,9 +1577,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%BB%A8%E5%9F%B7%E6%94%BF</t>
   </si>
   <si>
-    <t>一黨執政</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%B7%B4%E5%A5%91%E5%A4%AB</t>
   </si>
   <si>
@@ -1637,7 +1592,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>兩黨制</t>
+    <t>两党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -1649,7 +1604,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%94%BF%E5%88%B6</t>
   </si>
   <si>
-    <t>代議政制</t>
+    <t>代议政制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -1673,13 +1628,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%AD%B0%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>審議民主</t>
+    <t>审议民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>共產主義</t>
+    <t>共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%B4%9B%E8%8C%A8%E5%9F%BA%E4%B8%BB%E4%B9%89</t>
@@ -1691,7 +1646,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>共產主義國家</t>
+    <t>共产主义国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%B8%BB%E4%B9%89</t>
@@ -1703,7 +1658,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政體列表</t>
+    <t>政体列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%9D%83</t>
@@ -3588,7 +3543,7 @@
         <v>105</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>13</v>
@@ -3614,10 +3569,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -3643,10 +3598,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>4</v>
@@ -3672,10 +3627,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -3701,10 +3656,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>13</v>
@@ -3730,10 +3685,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -3759,10 +3714,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3817,10 +3772,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3846,10 +3801,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>10</v>
@@ -3875,10 +3830,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3904,10 +3859,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>9</v>
@@ -3933,10 +3888,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3962,10 +3917,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3991,10 +3946,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4020,10 +3975,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -4049,10 +4004,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -4078,10 +4033,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4107,10 +4062,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4136,10 +4091,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>7</v>
@@ -4165,10 +4120,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4223,10 +4178,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4252,10 +4207,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4281,10 +4236,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4310,10 +4265,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4339,10 +4294,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4368,10 +4323,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4397,10 +4352,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4426,10 +4381,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4455,10 +4410,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4484,10 +4439,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>61</v>
@@ -4513,10 +4468,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>8</v>
@@ -4542,10 +4497,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4571,10 +4526,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4600,10 +4555,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4629,10 +4584,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4658,10 +4613,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>134</v>
+      </c>
+      <c r="F90" t="s">
         <v>135</v>
-      </c>
-      <c r="F90" t="s">
-        <v>136</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4687,10 +4642,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4716,10 +4671,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4745,10 +4700,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G93" t="n">
         <v>9</v>
@@ -4774,10 +4729,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4803,10 +4758,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4832,10 +4787,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -4861,10 +4816,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4890,10 +4845,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>7</v>
@@ -4919,10 +4874,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>7</v>
@@ -4948,10 +4903,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4977,10 +4932,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5006,10 +4961,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5035,10 +4990,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="G103" t="n">
         <v>6</v>
@@ -5064,10 +5019,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5122,10 +5077,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5151,10 +5106,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G107" t="n">
         <v>9</v>
@@ -5180,10 +5135,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G108" t="n">
         <v>8</v>
@@ -5209,10 +5164,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G109" t="n">
         <v>7</v>
@@ -5238,10 +5193,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G110" t="n">
         <v>6</v>
@@ -5267,10 +5222,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5296,10 +5251,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5325,10 +5280,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G113" t="n">
         <v>13</v>
@@ -5354,10 +5309,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5383,10 +5338,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G115" t="n">
         <v>5</v>
@@ -5412,10 +5367,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5441,10 +5396,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5470,10 +5425,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5499,10 +5454,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5528,10 +5483,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5557,10 +5512,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G121" t="n">
         <v>6</v>
@@ -5586,10 +5541,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5615,10 +5570,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5644,10 +5599,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5673,10 +5628,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -5702,10 +5657,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5731,10 +5686,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5760,10 +5715,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>118</v>
+      </c>
+      <c r="F128" t="s">
         <v>119</v>
-      </c>
-      <c r="F128" t="s">
-        <v>120</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5789,10 +5744,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5818,10 +5773,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G130" t="n">
         <v>7</v>
@@ -5847,10 +5802,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G131" t="n">
         <v>5</v>
@@ -5876,10 +5831,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -5905,10 +5860,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -5963,10 +5918,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -5992,10 +5947,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6021,10 +5976,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6050,10 +6005,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6079,10 +6034,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6108,10 +6063,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6137,10 +6092,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G141" t="n">
         <v>12</v>
@@ -6166,10 +6121,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6195,10 +6150,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6224,10 +6179,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6253,10 +6208,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6282,10 +6237,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6311,10 +6266,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>193</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6340,10 +6295,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6369,10 +6324,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>114</v>
+      </c>
+      <c r="F149" t="s">
         <v>115</v>
-      </c>
-      <c r="F149" t="s">
-        <v>116</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6398,10 +6353,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6427,10 +6382,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6456,10 +6411,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G152" t="n">
         <v>7</v>
@@ -6485,10 +6440,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6514,10 +6469,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6543,10 +6498,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6572,10 +6527,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6601,10 +6556,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6630,10 +6585,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F158" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G158" t="n">
         <v>8</v>
@@ -6659,10 +6614,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6688,10 +6643,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F160" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6717,10 +6672,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6746,10 +6701,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F162" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6775,10 +6730,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F163" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6804,10 +6759,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F164" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6833,10 +6788,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>134</v>
+      </c>
+      <c r="F165" t="s">
         <v>135</v>
-      </c>
-      <c r="F165" t="s">
-        <v>136</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6862,10 +6817,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F166" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6891,10 +6846,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F167" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G167" t="n">
         <v>17</v>
@@ -6920,10 +6875,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F168" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6949,10 +6904,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F169" t="s">
-        <v>318</v>
+        <v>36</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6978,10 +6933,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F170" t="s">
-        <v>320</v>
+        <v>34</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7007,10 +6962,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F171" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7036,10 +6991,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F172" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7065,10 +7020,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7094,10 +7049,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F174" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -7123,10 +7078,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7152,10 +7107,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7181,10 +7136,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7210,10 +7165,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7239,10 +7194,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7268,10 +7223,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7297,10 +7252,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7326,10 +7281,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -7355,10 +7310,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G183" t="n">
         <v>3</v>
@@ -7384,10 +7339,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7413,10 +7368,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7442,10 +7397,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7471,10 +7426,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -7500,10 +7455,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7529,10 +7484,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7558,10 +7513,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7587,10 +7542,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7616,10 +7571,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -7645,10 +7600,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7674,10 +7629,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F194" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7703,10 +7658,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F195" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7732,10 +7687,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7761,10 +7716,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F197" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7790,10 +7745,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7819,10 +7774,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F199" t="s">
-        <v>378</v>
+        <v>100</v>
       </c>
       <c r="G199" t="n">
         <v>4</v>
@@ -7848,10 +7803,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F200" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7877,10 +7832,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F201" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7906,10 +7861,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F202" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -7935,10 +7890,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="F203" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7964,10 +7919,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F204" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G204" t="n">
         <v>5</v>
@@ -7993,10 +7948,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F205" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8022,10 +7977,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="F206" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8051,10 +8006,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F207" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -8080,10 +8035,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F208" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8109,10 +8064,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8138,10 +8093,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8167,10 +8122,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8196,10 +8151,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8225,10 +8180,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G213" t="n">
         <v>6</v>
@@ -8254,10 +8209,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8283,10 +8238,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8312,10 +8267,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>109</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8341,10 +8296,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8370,10 +8325,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8399,10 +8354,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8428,10 +8383,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8457,10 +8412,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G221" t="n">
         <v>3</v>
@@ -8486,10 +8441,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F222" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8515,10 +8470,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="F223" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8544,10 +8499,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F224" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -8573,10 +8528,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="F225" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8602,10 +8557,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="F226" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8631,10 +8586,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="G227" t="n">
         <v>4</v>
@@ -8660,10 +8615,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="F228" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8689,10 +8644,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8718,10 +8673,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="F230" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="G230" t="n">
         <v>5</v>
@@ -8747,10 +8702,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8776,10 +8731,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="F232" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8805,10 +8760,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F233" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8834,10 +8789,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8863,10 +8818,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -8892,10 +8847,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -8921,10 +8876,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8950,10 +8905,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -8979,10 +8934,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9008,10 +8963,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F240" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9037,10 +8992,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="F241" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9066,10 +9021,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F242" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G242" t="n">
         <v>4</v>
@@ -9095,10 +9050,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="F243" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9124,10 +9079,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="F244" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9153,10 +9108,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="F245" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9182,10 +9137,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F246" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G246" t="n">
         <v>3</v>
@@ -9211,10 +9166,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F247" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9240,10 +9195,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F248" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G248" t="n">
         <v>4</v>
@@ -9269,10 +9224,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9298,10 +9253,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9327,10 +9282,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9356,10 +9311,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G252" t="n">
         <v>3</v>
@@ -9385,10 +9340,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="G253" t="n">
         <v>13</v>
@@ -9414,10 +9369,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9443,10 +9398,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9472,10 +9427,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9501,10 +9456,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="G257" t="n">
         <v>7</v>
@@ -9530,10 +9485,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9559,10 +9514,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="G259" t="n">
         <v>6</v>
@@ -9588,10 +9543,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>382</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -9617,10 +9572,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9646,10 +9601,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>321</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9675,10 +9630,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9704,10 +9659,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="G264" t="n">
         <v>3</v>
@@ -9733,10 +9688,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -9762,10 +9717,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9791,10 +9746,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9820,10 +9775,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="G268" t="n">
         <v>5</v>
@@ -9849,10 +9804,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -9878,10 +9833,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9907,10 +9862,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9936,10 +9891,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9965,10 +9920,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9994,10 +9949,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10023,10 +9978,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="G275" t="n">
         <v>5</v>
@@ -10052,10 +10007,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="G276" t="n">
         <v>6</v>
@@ -10081,10 +10036,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10110,10 +10065,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>272</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10139,10 +10094,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10168,10 +10123,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10197,10 +10152,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -10226,10 +10181,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10255,10 +10210,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10284,10 +10239,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10313,10 +10268,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10342,10 +10297,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10371,10 +10326,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10400,10 +10355,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="G288" t="n">
         <v>3</v>
@@ -10429,10 +10384,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10458,10 +10413,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10487,10 +10442,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10516,10 +10471,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F292" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10545,10 +10500,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="F293" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -10574,10 +10529,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="F294" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="G294" t="n">
         <v>5</v>

--- a/xlsx/政体_intext.xlsx
+++ b/xlsx/政体_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="569">
   <si>
     <t>政体</t>
   </si>
@@ -29,7 +29,7 @@
     <t>政治</t>
   </si>
   <si>
-    <t>政策_政策_政治_政体</t>
+    <t>体育运动_体育运动_纳粹德国_政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
@@ -1698,6 +1698,18 @@
   </si>
   <si>
     <t>伊斯兰主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%B8%83%E6%96%AF</t>
+  </si>
+  <si>
+    <t>霍布斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%BB%B4%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>利维坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94%E5%88%97%E8%A1%A8</t>
@@ -2058,7 +2070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I294"/>
+  <dimension ref="A1:I296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6114,7 +6126,7 @@
         <v>268</v>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -10551,7 +10563,7 @@
         <v>562</v>
       </c>
       <c r="G293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -10580,12 +10592,70 @@
         <v>564</v>
       </c>
       <c r="G294" t="n">
+        <v>1</v>
+      </c>
+      <c r="H294" t="s">
+        <v>4</v>
+      </c>
+      <c r="I294" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>0</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1</v>
+      </c>
+      <c r="D295" t="n">
+        <v>294</v>
+      </c>
+      <c r="E295" t="s">
+        <v>565</v>
+      </c>
+      <c r="F295" t="s">
+        <v>566</v>
+      </c>
+      <c r="G295" t="n">
+        <v>2</v>
+      </c>
+      <c r="H295" t="s">
+        <v>4</v>
+      </c>
+      <c r="I295" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>0</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1</v>
+      </c>
+      <c r="D296" t="n">
+        <v>295</v>
+      </c>
+      <c r="E296" t="s">
+        <v>567</v>
+      </c>
+      <c r="F296" t="s">
+        <v>568</v>
+      </c>
+      <c r="G296" t="n">
         <v>5</v>
       </c>
-      <c r="H294" t="s">
-        <v>4</v>
-      </c>
-      <c r="I294" t="n">
+      <c r="H296" t="s">
+        <v>4</v>
+      </c>
+      <c r="I296" t="n">
         <v>3</v>
       </c>
     </row>
